--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_2_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_2_33.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42156.45181071563</v>
+        <v>2714377.862997092</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42156.45181071563</v>
+        <v>2714377.862997092</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417936289.596169</v>
+        <v>55290007.62351216</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12581.43201426903</v>
+        <v>1198899.275996255</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24966.52881753135</v>
+        <v>2363823.038303905</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37351.62562079365</v>
+        <v>3528746.800611556</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51028.41669060287</v>
+        <v>4623680.344939065</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64705.20776041204</v>
+        <v>5718613.889266575</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78381.99883022122</v>
+        <v>6813547.433594081</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>92058.78990003039</v>
+        <v>7908480.977921584</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105735.5809698396</v>
+        <v>9003414.522249086</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>119412.3720396488</v>
+        <v>10098348.06657659</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133089.1631094581</v>
+        <v>11193281.61090409</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>146424.6954264482</v>
+        <v>12303056.30731974</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>159436.5238968851</v>
+        <v>13428167.43493068</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>172315.9396243483</v>
+        <v>14560138.65135429</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>187167.5257741461</v>
+        <v>15531825.39517421</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>202019.1119239417</v>
+        <v>16503512.13899443</v>
       </c>
     </row>
   </sheetData>
